--- a/source/guides/hrsa/uds-plus/CodeSystem-udsplus-service-delivery-codes.xlsx
+++ b/source/guides/hrsa/uds-plus/CodeSystem-udsplus-service-delivery-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -123,25 +123,34 @@
     <t>Count</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>public-housing</t>
   </si>
   <si>
     <t>Care was delivered in a Location that is considered public housing</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>Care was delivered in a Location that is considered a school</t>
   </si>
 </sst>
 </file>
@@ -454,7 +463,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,16 +485,30 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>42</v>
+      <c r="B3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
